--- a/Slot MachineTask/SlotMachRows.xlsx
+++ b/Slot MachineTask/SlotMachRows.xlsx
@@ -30,15 +30,9 @@
     <t>000:0010</t>
   </si>
   <si>
-    <t>LOOK</t>
-  </si>
-  <si>
     <t>00010:0020</t>
   </si>
   <si>
-    <t>REGULATE</t>
-  </si>
-  <si>
     <t>00020:0030</t>
   </si>
   <si>
@@ -49,6 +43,12 @@
   </si>
   <si>
     <t>0050:0060</t>
+  </si>
+  <si>
+    <t>EMPHASIZE</t>
+  </si>
+  <si>
+    <t>DE-EMPHASIZE</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,47 +387,47 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
